--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
@@ -4890,12 +4890,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6223,12 +6223,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>1105</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6238,12 +6238,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6679,97 +6679,97 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>1106</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>11,83%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>1139</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>9,99%</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr">
-        <is>
-          <t>1165</t>
-        </is>
-      </c>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3978,7 +3978,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>136135</t>
+          <t>154376</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>132277</t>
+          <t>150790</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>139116</t>
+          <t>157136</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>131849</t>
+          <t>162224</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>128098</t>
+          <t>158660</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>135031</t>
+          <t>165190</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>267984</t>
+          <t>316600</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>263268</t>
+          <t>311789</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>272563</t>
+          <t>320858</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,18%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>93,37%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8200</t>
+          <t>8070</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5974</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11011</t>
+          <t>10848</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10257</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7615</t>
+          <t>7373</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13665</t>
+          <t>13128</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>18457</t>
+          <t>18100</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14920</t>
+          <t>14525</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>22518</t>
+          <t>22315</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7467</t>
+          <t>7477</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3883</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2453</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6042</t>
+          <t>5975</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>8771</t>
+          <t>8932</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6258</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>12071</t>
+          <t>11863</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74578</t>
+          <t>84437</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71424</t>
+          <t>81501</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76766</t>
+          <t>86867</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>86,43%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>102730</t>
+          <t>118648</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100241</t>
+          <t>115946</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>104886</t>
+          <t>120652</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>177308</t>
+          <t>203085</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>173261</t>
+          <t>199292</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>180465</t>
+          <t>206165</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5656</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3867</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8274</t>
+          <t>8737</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5052</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3440</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7351</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>10708</t>
+          <t>10926</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8244</t>
+          <t>8254</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14146</t>
+          <t>13924</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3849</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>7103</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>149747</t>
+          <t>143812</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>145860</t>
+          <t>140501</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>152719</t>
+          <t>146453</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,06%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58087</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>55610</t>
+          <t>53964</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>59813</t>
+          <t>57806</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>207834</t>
+          <t>199915</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>203192</t>
+          <t>196150</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>211277</t>
+          <t>203318</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>88,96%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>93,03%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9738</t>
+          <t>8574</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7049</t>
+          <t>6355</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12677</t>
+          <t>11229</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2186</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5935</t>
+          <t>4816</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>13441</t>
+          <t>11504</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10467</t>
+          <t>9023</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>17133</t>
+          <t>14669</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>4792</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3372</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7492</t>
+          <t>6853</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2172</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3645</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>7128</t>
+          <t>7134</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5087</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>9743</t>
+          <t>9686</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>158533</t>
+          <t>159477</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>154508</t>
+          <t>156140</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>161908</t>
+          <t>162353</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>163894</t>
+          <t>172776</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>159944</t>
+          <t>169404</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>167526</t>
+          <t>175590</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,04%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>322428</t>
+          <t>332253</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>317061</t>
+          <t>327581</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>327042</t>
+          <t>336633</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>92,61%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13315</t>
+          <t>11703</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10269</t>
+          <t>9166</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16889</t>
+          <t>14692</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,67 +2250,67 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11881</t>
+          <t>9547</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>7351</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15300</t>
+          <t>12234</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
+          <t>3,9%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>21250</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18030</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>25805</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>4,96%</t>
         </is>
       </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>25195</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>21166</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>29716</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>7,04%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>5,91%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2608</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6249</t>
+          <t>6252</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6242</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4350</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>9061</t>
+          <t>8565</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>10492</t>
+          <t>9984</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>7991</t>
+          <t>7578</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>14078</t>
+          <t>13116</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>72816</t>
+          <t>71814</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>70586</t>
+          <t>69739</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>74773</t>
+          <t>73537</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,25%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2593,32 +2593,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>120858</t>
+          <t>113951</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>117707</t>
+          <t>111265</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>123373</t>
+          <t>116261</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2628,32 +2628,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>193674</t>
+          <t>185765</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>189863</t>
+          <t>182463</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>196971</t>
+          <t>188618</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,49%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>93,6%</t>
         </is>
       </c>
     </row>
@@ -2671,32 +2671,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4357</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>2518</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6676</t>
+          <t>5960</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7462</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>10255</t>
+          <t>8342</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2741,32 +2741,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>11819</t>
+          <t>10206</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>9297</t>
+          <t>8162</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>15045</t>
+          <t>13204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1916</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>952</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3484</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,32 +2819,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3059</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>7035</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,32 +2854,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>6676</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>9702</t>
+          <t>7898</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -2897,17 +2897,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3014,32 +3014,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>42619</t>
+          <t>46971</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>40528</t>
+          <t>44770</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>44354</t>
+          <t>48598</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>86,11%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3049,32 +3049,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>111587</t>
+          <t>112306</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>108723</t>
+          <t>109166</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>113795</t>
+          <t>114515</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>92,77%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>154206</t>
+          <t>159277</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>150527</t>
+          <t>155964</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>157007</t>
+          <t>162386</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>93,82%</t>
+          <t>94,03%</t>
         </is>
       </c>
     </row>
@@ -3127,67 +3127,67 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3409</t>
+          <t>2183</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1824</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5358</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>6559</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>4713</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>9109</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
           <t>3,88%</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>11,38%</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>6393</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>4661</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>8864</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
-      <c r="O25" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3197,32 +3197,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>9803</t>
+          <t>8741</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>7308</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>12940</t>
+          <t>11517</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -3240,32 +3240,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>415</t>
+          <t>989</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3275,32 +3275,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2297</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>3896</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3310,32 +3310,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3336</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>7554</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>634430</t>
+          <t>660888</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>627151</t>
+          <t>654053</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>641344</t>
+          <t>667571</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>91,81%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>689004</t>
+          <t>736008</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>680960</t>
+          <t>728690</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>695580</t>
+          <t>742470</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>91,2%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3540,32 +3540,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1323433</t>
+          <t>1396896</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1313429</t>
+          <t>1387648</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1333467</t>
+          <t>1406572</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>91,02%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>90,33%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>92,64%</t>
         </is>
       </c>
     </row>
@@ -3583,32 +3583,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>44675</t>
+          <t>40796</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>39351</t>
+          <t>35668</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>51050</t>
+          <t>46433</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3618,32 +3618,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44748</t>
+          <t>39930</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>39491</t>
+          <t>34794</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>51195</t>
+          <t>45621</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>89422</t>
+          <t>80726</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>81007</t>
+          <t>73436</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>98045</t>
+          <t>88678</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -3696,22 +3696,22 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>19457</t>
+          <t>19722</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>15524</t>
+          <t>15988</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23926</t>
+          <t>23765</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3731,32 +3731,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>21706</t>
+          <t>20994</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>17782</t>
+          <t>17093</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>26430</t>
+          <t>25308</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3766,32 +3766,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>41163</t>
+          <t>40715</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>35057</t>
+          <t>35415</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>47115</t>
+          <t>46777</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Clase-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>497</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>154376</t>
+          <t>284694</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>150790</t>
+          <t>278832</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>157136</t>
+          <t>289060</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,17%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>94,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>97,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>444</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>162224</t>
+          <t>262891</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>158660</t>
+          <t>255720</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>165190</t>
+          <t>268263</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1593</t>
+          <t>941</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>316600</t>
+          <t>547584</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>311789</t>
+          <t>539643</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>320858</t>
+          <t>554379</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>92,13%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>90,73%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>96,9%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8070</t>
+          <t>8855</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5930</t>
+          <t>5125</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10848</t>
+          <t>14791</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10030</t>
+          <t>12564</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7373</t>
+          <t>7458</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13128</t>
+          <t>19197</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>18100</t>
+          <t>21418</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14525</t>
+          <t>14959</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>22315</t>
+          <t>29702</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5053</t>
+          <t>1624</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>332</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7477</t>
+          <t>5509</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3879</t>
+          <t>1491</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5975</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>8932</t>
+          <t>3114</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>6561</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>11863</t>
+          <t>6949</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>295172</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>276945</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>985</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>572117</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>449</t>
+          <t>329</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>84437</t>
+          <t>186159</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81501</t>
+          <t>180632</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>86867</t>
+          <t>189745</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>92,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>96,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>631</t>
+          <t>381</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>118648</t>
+          <t>224198</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>115946</t>
+          <t>219403</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>120652</t>
+          <t>227941</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>96,65%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1080</t>
+          <t>710</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>203085</t>
+          <t>410356</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>199292</t>
+          <t>403573</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>206165</t>
+          <t>415877</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>95,93%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>97,22%</t>
         </is>
       </c>
     </row>
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6279</t>
+          <t>9277</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>5611</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8737</t>
+          <t>14860</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>7781</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>4038</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12576</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>4647</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>3024</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6895</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>2,41%</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>5,49%</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>10926</t>
+          <t>17058</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8254</t>
+          <t>11582</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>13924</t>
+          <t>23780</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>5,56%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2166</t>
+          <t>335</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3756</t>
+          <t>1710</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2290</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1235</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3853</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>4456</t>
+          <t>335</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3054</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7103</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>0,39%</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>394</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>231979</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>741</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>427750</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1641,107 +1641,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>143812</t>
+          <t>174090</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>140501</t>
+          <t>169320</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>146453</t>
+          <t>176867</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>89,39%</t>
+          <t>93,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>152</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>56103</t>
+          <t>80751</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>53964</t>
+          <t>78463</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57806</t>
+          <t>81963</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>482</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>199915</t>
+          <t>254841</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>196150</t>
+          <t>250233</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>203318</t>
+          <t>258217</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,03%</t>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -1754,107 +1754,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8574</t>
+          <t>4739</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6355</t>
+          <t>2262</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11229</t>
+          <t>9076</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1815</t>
+          <t>320</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4816</t>
+          <t>2736</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>11504</t>
+          <t>5817</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9023</t>
+          <t>2912</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>14669</t>
+          <t>10195</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>3,88%</t>
         </is>
       </c>
     </row>
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4792</t>
+          <t>1521</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3283</t>
+          <t>426</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6853</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2341</t>
+          <t>491</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3706</t>
+          <t>2448</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>5</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>7134</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>5102</t>
+          <t>738</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>9686</t>
+          <t>4559</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>1,74%</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>345</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180351</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>82320</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>501</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>262671</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,107 +2097,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>159477</t>
+          <t>293675</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>156140</t>
+          <t>287450</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>162353</t>
+          <t>298790</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>95,6%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,18%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>524</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>172776</t>
+          <t>297904</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>169404</t>
+          <t>291077</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>175590</t>
+          <t>303629</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,2%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>332253</t>
+          <t>591578</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>327581</t>
+          <t>581068</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>336633</t>
+          <t>599502</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>94,97%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,61%</t>
+          <t>96,24%</t>
         </is>
       </c>
     </row>
@@ -2210,107 +2210,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11703</t>
+          <t>11951</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>7142</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14692</t>
+          <t>18042</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9547</t>
+          <t>15079</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7351</t>
+          <t>9630</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>12234</t>
+          <t>21905</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>21250</t>
+          <t>27030</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>18030</t>
+          <t>19107</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>25805</t>
+          <t>36301</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -2323,107 +2323,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>1549</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>345</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6252</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6071</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4142</t>
+          <t>894</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>8565</t>
+          <t>6484</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>9984</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>13116</t>
+          <t>8780</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>307175</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315723</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1132</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>622898</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>622898</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>622898</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2553,107 +2553,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>71814</t>
+          <t>144981</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>69739</t>
+          <t>140577</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>73537</t>
+          <t>147643</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>96,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>256</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>113951</t>
+          <t>146107</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>111265</t>
+          <t>137470</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>116261</t>
+          <t>150127</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>506</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>185765</t>
+          <t>291088</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>182463</t>
+          <t>282794</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>188618</t>
+          <t>296453</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>92,78%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>97,26%</t>
         </is>
       </c>
     </row>
@@ -2666,107 +2666,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>5304</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2642</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5960</t>
+          <t>9708</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6218</t>
+          <t>6907</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4459</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>8342</t>
+          <t>14790</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>10206</t>
+          <t>12211</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>8162</t>
+          <t>7239</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>13204</t>
+          <t>20358</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -2779,107 +2779,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1705</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>952</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3834</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>5149</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>1508</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>7898</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150285</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2927,22 +2927,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154521</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2962,22 +2962,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>304806</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3009,107 +3009,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>46971</t>
+          <t>8954</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>44770</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>48598</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>81,65%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>112306</t>
+          <t>10645</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>109166</t>
+          <t>8125</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>114515</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>89,89%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>895</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>159277</t>
+          <t>19599</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>155964</t>
+          <t>17122</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>162386</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>94,45%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>82,52%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -3122,107 +3122,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2183</t>
+          <t>394</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1149</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3790</t>
+          <t>1715</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>18,35%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>6559</t>
+          <t>757</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>4713</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>9109</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>8741</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>11517</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>17,48%</t>
         </is>
       </c>
     </row>
@@ -3235,107 +3235,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2092</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4343</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1547</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>7554</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -3348,22 +3348,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3383,22 +3383,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3418,22 +3418,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3465,107 +3465,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3659</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>660888</t>
+          <t>1092553</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>654053</t>
+          <t>1080753</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>667571</t>
+          <t>1102238</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>94,96%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>4055</t>
+          <t>1774</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>736008</t>
+          <t>1022494</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>728690</t>
+          <t>1010167</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>742470</t>
+          <t>1033006</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>7714</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>1396896</t>
+          <t>2115047</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1387648</t>
+          <t>2098495</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1406572</t>
+          <t>2129149</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>96,3%</t>
         </is>
       </c>
     </row>
@@ -3578,107 +3578,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>40796</t>
+          <t>40520</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>35668</t>
+          <t>31491</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>46433</t>
+          <t>52089</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>73</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>39930</t>
+          <t>44166</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>34794</t>
+          <t>34253</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>45621</t>
+          <t>56833</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>80726</t>
+          <t>84686</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>73436</t>
+          <t>71424</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>88678</t>
+          <t>99806</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -3691,107 +3691,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>19722</t>
+          <t>5029</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>15988</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23765</t>
+          <t>9199</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>20994</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>17093</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>25308</t>
+          <t>11105</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>22</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>40715</t>
+          <t>11259</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>35415</t>
+          <t>6875</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>46777</t>
+          <t>16771</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -3804,22 +3804,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1138102</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1138102</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1138102</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3839,22 +3839,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>1858</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072890</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072890</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1072890</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3874,22 +3874,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2210992</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2210992</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2210992</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3978,7 +3978,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4163,107 +4163,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>787</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>284694</t>
+          <t>154376</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>278832</t>
+          <t>150790</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>289060</t>
+          <t>157136</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>92,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>262891</t>
+          <t>162224</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>255720</t>
+          <t>158660</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>268263</t>
+          <t>165190</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>941</t>
+          <t>1593</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>547584</t>
+          <t>316600</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>539643</t>
+          <t>311789</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>554379</t>
+          <t>320858</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>93,37%</t>
         </is>
       </c>
     </row>
@@ -4276,107 +4276,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8855</t>
+          <t>8070</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5125</t>
+          <t>5930</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14791</t>
+          <t>10848</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12564</t>
+          <t>10030</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7458</t>
+          <t>7373</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>19197</t>
+          <t>13128</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>98</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>21418</t>
+          <t>18100</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>14959</t>
+          <t>14525</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>29702</t>
+          <t>22315</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>6,49%</t>
         </is>
       </c>
     </row>
@@ -4389,107 +4389,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>5053</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>7477</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>2333</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>5975</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>47</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>8932</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>6561</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>6949</t>
+          <t>11863</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>3,45%</t>
         </is>
       </c>
     </row>
@@ -4502,22 +4502,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>295172</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4537,22 +4537,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>276945</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4572,22 +4572,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>985</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>572117</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4619,107 +4619,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>449</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>186159</t>
+          <t>84437</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>180632</t>
+          <t>81501</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>189745</t>
+          <t>86867</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,27%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>631</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>224198</t>
+          <t>118648</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>219403</t>
+          <t>115946</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>227941</t>
+          <t>120652</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>92,32%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>1080</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>410356</t>
+          <t>203085</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>403573</t>
+          <t>199292</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>415877</t>
+          <t>206165</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,93%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,35%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,22%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -4732,107 +4732,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9277</t>
+          <t>6279</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5611</t>
+          <t>4250</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14860</t>
+          <t>8737</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7781</t>
+          <t>4647</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4038</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12576</t>
+          <t>6895</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>63</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>17058</t>
+          <t>10926</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>11582</t>
+          <t>8254</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>23780</t>
+          <t>13924</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>6,37%</t>
         </is>
       </c>
     </row>
@@ -4845,107 +4845,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>2166</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1710</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1235</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3853</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>4456</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3054</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>1683</t>
+          <t>7103</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -4958,22 +4958,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4993,22 +4993,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>231979</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5028,22 +5028,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427750</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5075,107 +5075,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>844</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>174090</t>
+          <t>143812</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>169320</t>
+          <t>140501</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>176867</t>
+          <t>146453</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>337</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>80751</t>
+          <t>56103</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>78463</t>
+          <t>53964</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>81963</t>
+          <t>57806</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>1181</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>254841</t>
+          <t>199915</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>250233</t>
+          <t>196150</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>258217</t>
+          <t>203318</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>93,03%</t>
         </is>
       </c>
     </row>
@@ -5188,107 +5188,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>8574</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2262</t>
+          <t>6355</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9076</t>
+          <t>11229</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>1815</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2736</t>
+          <t>4816</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>71</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>5817</t>
+          <t>11504</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>9023</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>10195</t>
+          <t>14669</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>6,71%</t>
         </is>
       </c>
     </row>
@@ -5301,107 +5301,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1521</t>
+          <t>4792</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3936</t>
+          <t>6853</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>2341</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2448</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>7134</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>738</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4559</t>
+          <t>9686</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -5414,22 +5414,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>180351</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5449,22 +5449,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>82320</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5484,22 +5484,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>262671</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5531,107 +5531,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>293675</t>
+          <t>159477</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>287450</t>
+          <t>156140</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>298790</t>
+          <t>162353</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>89,18%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>954</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>297904</t>
+          <t>172776</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>291077</t>
+          <t>169404</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>303629</t>
+          <t>175590</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>91,71%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>92,19%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1076</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>591578</t>
+          <t>332253</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>581068</t>
+          <t>327581</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>599502</t>
+          <t>336633</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>92,61%</t>
         </is>
       </c>
     </row>
@@ -5644,107 +5644,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11951</t>
+          <t>11703</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7142</t>
+          <t>9166</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18042</t>
+          <t>14692</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15079</t>
+          <t>9547</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9630</t>
+          <t>7351</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21905</t>
+          <t>12234</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>135</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>27030</t>
+          <t>21250</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>19107</t>
+          <t>18030</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>36301</t>
+          <t>25805</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -5757,107 +5757,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1549</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>2625</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4450</t>
+          <t>6252</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>6071</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>6484</t>
+          <t>8565</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>4290</t>
+          <t>9984</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>7578</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>8780</t>
+          <t>13116</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -5870,22 +5870,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>307175</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5905,22 +5905,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>315723</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5940,22 +5940,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>622898</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>622898</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>622898</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5987,107 +5987,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>416</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>144981</t>
+          <t>71814</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>140577</t>
+          <t>69739</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>147643</t>
+          <t>73537</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>682</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>146107</t>
+          <t>113951</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>137470</t>
+          <t>111265</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>150127</t>
+          <t>116261</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>89,73%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>1098</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>291088</t>
+          <t>185765</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>282794</t>
+          <t>182463</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>296453</t>
+          <t>188618</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,26%</t>
+          <t>93,6%</t>
         </is>
       </c>
     </row>
@@ -6100,107 +6100,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5304</t>
+          <t>3988</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>2518</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9708</t>
+          <t>5960</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>6907</t>
+          <t>6218</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2927</t>
+          <t>4459</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>14790</t>
+          <t>8342</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>64</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>12211</t>
+          <t>10206</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>7239</t>
+          <t>8162</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>20358</t>
+          <t>13204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -6213,107 +6213,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1705</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>952</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>3834</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>5149</t>
+          <t>5722</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>1508</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>7898</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -6326,22 +6326,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>150285</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6361,22 +6361,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>154521</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6396,22 +6396,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>304806</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6443,107 +6443,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8954</t>
+          <t>46971</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>44770</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>48598</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>81,65%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>645</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>10645</t>
+          <t>112306</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>8125</t>
+          <t>109166</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>114515</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>92,48%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>71,26%</t>
+          <t>89,89%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>895</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>19599</t>
+          <t>159277</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>17122</t>
+          <t>155964</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>162386</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>92,23%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>82,52%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>94,03%</t>
         </is>
       </c>
     </row>
@@ -6556,107 +6556,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>2183</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1715</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>39</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>6559</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>9109</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>8741</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6464</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>3628</t>
+          <t>11517</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -6669,107 +6669,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2092</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>989</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4343</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2578</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1547</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4852</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4670</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2866</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7554</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,37%</t>
         </is>
       </c>
     </row>
@@ -6782,22 +6782,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6817,22 +6817,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6852,22 +6852,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6899,107 +6899,107 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1092553</t>
+          <t>660888</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1080753</t>
+          <t>654053</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1102238</t>
+          <t>667571</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>92,54%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>1774</t>
+          <t>4055</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1022494</t>
+          <t>736008</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1010167</t>
+          <t>728690</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1033006</t>
+          <t>742470</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>3746</t>
+          <t>7714</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>2115047</t>
+          <t>1396896</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>2098495</t>
+          <t>1387648</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>2129149</t>
+          <t>1406572</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>92,64%</t>
         </is>
       </c>
     </row>
@@ -7012,107 +7012,107 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>244</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>40520</t>
+          <t>40796</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>31491</t>
+          <t>35668</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>52089</t>
+          <t>46433</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>241</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>44166</t>
+          <t>39930</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>34253</t>
+          <t>34794</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>56833</t>
+          <t>45621</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>485</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>84686</t>
+          <t>80726</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>71424</t>
+          <t>73436</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>99806</t>
+          <t>88678</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>5,84%</t>
         </is>
       </c>
     </row>
@@ -7125,107 +7125,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>5029</t>
+          <t>19722</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>15988</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9199</t>
+          <t>23765</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>20994</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>17093</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>11105</t>
+          <t>25308</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>227</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>11259</t>
+          <t>40715</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>6875</t>
+          <t>35415</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>16771</t>
+          <t>46777</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -7238,22 +7238,22 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1138102</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1138102</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>1138102</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -7273,22 +7273,22 @@
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>1072890</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>1072890</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>1072890</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>3918</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>2210992</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>2210992</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>2210992</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
